--- a/data/trans_dic/P56$privada-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P56$privada-Habitat-trans_dic.xlsx
@@ -715,31 +715,31 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1233743380310832</v>
+        <v>0.1275436460818619</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05862277057660939</v>
+        <v>0.05782232646675797</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02491496858800172</v>
+        <v>0.02510355848069678</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05963142031963211</v>
+        <v>0.05870284216802883</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.124183834771402</v>
+        <v>0.1259554530327819</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06419685316694854</v>
+        <v>0.06267933824561124</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01886399751691743</v>
+        <v>0.01886342423092965</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06110883140187454</v>
+        <v>0.05998762378964512</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.143693207989867</v>
+        <v>0.1413246712146994</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4193831905212959</v>
+        <v>0.3731287897929397</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.2789344871555361</v>
+        <v>0.2750573546209743</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3966783969052911</v>
+        <v>0.3829131469058919</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4534094883952317</v>
+        <v>0.4564929728248004</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2148766259393443</v>
+        <v>0.2254571984699608</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.335707011947159</v>
+        <v>0.3369054404685708</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2596928554625382</v>
+        <v>0.2539248411227604</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3628366002289136</v>
+        <v>0.339224187385864</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1719475003442529</v>
+        <v>0.1863252388654557</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.276554681694529</v>
+        <v>0.2633844738746406</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2677870709770031</v>
+        <v>0.2691938882169315</v>
       </c>
     </row>
     <row r="7">
@@ -841,33 +841,33 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.06494941273926161</v>
+        <v>0.05655911210675091</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08225724541325674</v>
+        <v>0.0843119873368096</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02007598144530866</v>
+        <v>0.01901098741280837</v>
       </c>
       <c r="G8" s="5" t="inlineStr"/>
       <c r="H8" s="5" t="n">
-        <v>0.06342031758687769</v>
+        <v>0.0638122194061293</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1134724364137598</v>
+        <v>0.1150028135813539</v>
       </c>
       <c r="K8" s="5" t="inlineStr"/>
       <c r="L8" s="5" t="n">
-        <v>0.08463075176141246</v>
+        <v>0.08599490187409126</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0473405394645431</v>
+        <v>0.04724474191946115</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.09689960776675594</v>
+        <v>0.1004554760412825</v>
       </c>
     </row>
     <row r="9">
@@ -879,33 +879,33 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.3364184925636932</v>
+        <v>0.3434846225476795</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4268105189492119</v>
+        <v>0.446671951731004</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1833287619079786</v>
+        <v>0.1925573446018908</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="n">
-        <v>0.2322115640749289</v>
+        <v>0.2354258654288306</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1964901111805145</v>
+        <v>0.2077878373959554</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2374164800072665</v>
+        <v>0.2419978090604702</v>
       </c>
       <c r="K9" s="5" t="inlineStr"/>
       <c r="L9" s="5" t="n">
-        <v>0.2281593920756015</v>
+        <v>0.2310071328974672</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2144035973957628</v>
+        <v>0.2265967937339954</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.195910155996453</v>
+        <v>0.2045321492884786</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.1839174576736564</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.1943347082736123</v>
+        <v>0.1943347082736124</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.07953244410839977</v>
@@ -953,7 +953,7 @@
         <v>0.156312801596181</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.166851054711818</v>
+        <v>0.1668510547118179</v>
       </c>
     </row>
     <row r="11">
@@ -969,31 +969,31 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0298223743341828</v>
+        <v>0.02875337927250734</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07370398229935941</v>
+        <v>0.07292107275715863</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07214652416621586</v>
+        <v>0.0706094883908647</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1137118103319223</v>
+        <v>0.1145183410327632</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.0505178493903329</v>
+        <v>0.05529222124308881</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.06665761370625825</v>
+        <v>0.06668400275537453</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1055969886769051</v>
+        <v>0.1034718431985934</v>
       </c>
     </row>
     <row r="12">
@@ -1006,34 +1006,34 @@
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.3170003531617228</v>
+        <v>0.2891920873036541</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.291389080435052</v>
+        <v>0.2732515955067628</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3595954479745193</v>
+        <v>0.350127171300079</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3339056532343633</v>
+        <v>0.336895477150048</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3771526354506056</v>
+        <v>0.3712948739586148</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3000190071635729</v>
+        <v>0.3023550123873541</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2398857893960139</v>
+        <v>0.2501810567923246</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2559447885455126</v>
+        <v>0.268323192331492</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.292445675691298</v>
+        <v>0.2853882207336324</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2558321804656637</v>
+        <v>0.2461834844905125</v>
       </c>
     </row>
     <row r="13">
@@ -1101,31 +1101,31 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07833499604453913</v>
+        <v>0.08597611882137146</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06902789173769608</v>
+        <v>0.03794272588840899</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08488930242717964</v>
+        <v>0.08587800763921595</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.09433311135933302</v>
+        <v>0.09012187970916559</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1235805164468707</v>
+        <v>0.1255492573932577</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07467529128574558</v>
+        <v>0.06880003252005086</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08646353431533102</v>
+        <v>0.08822627283751103</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.08547452252377132</v>
+        <v>0.08754703684426333</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1274538583031511</v>
+        <v>0.1284555517347005</v>
       </c>
     </row>
     <row r="15">
@@ -1136,40 +1136,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3142747600576259</v>
+        <v>0.373076215302225</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3000182924638217</v>
+        <v>0.3014800417373777</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3617928428903672</v>
+        <v>0.3792807437886341</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2778413078965897</v>
+        <v>0.2858127861585113</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3321929370076163</v>
+        <v>0.3501853982677749</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3200165385420429</v>
+        <v>0.3164593409948365</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3483340093536019</v>
+        <v>0.3483222074109493</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2615275083997398</v>
+        <v>0.2647889730473114</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3087201534966647</v>
+        <v>0.302429544892847</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2710513537041422</v>
+        <v>0.2724426802233312</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3056121177872951</v>
+        <v>0.3012411212620166</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2430017993742436</v>
+        <v>0.2482719124858255</v>
       </c>
     </row>
     <row r="16">
@@ -1193,7 +1193,7 @@
         <v>0.1351821428706154</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1482351596738313</v>
+        <v>0.1482351596738314</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1154378850327528</v>
@@ -1217,7 +1217,7 @@
         <v>0.1488993992933316</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.1718817726983657</v>
+        <v>0.1718817726983658</v>
       </c>
     </row>
     <row r="17">
@@ -1228,40 +1228,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.018181376761014</v>
+        <v>0.01837348025444355</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04062427276805123</v>
+        <v>0.04053167540858277</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07456329261075115</v>
+        <v>0.07115669828266706</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09909327364845297</v>
+        <v>0.09736265146777222</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05938493835998161</v>
+        <v>0.0560636822959904</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.09997042115331738</v>
+        <v>0.09590479593088026</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1004342210611629</v>
+        <v>0.09472128898464305</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1486734213580845</v>
+        <v>0.1484430797209509</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06070432082553867</v>
+        <v>0.05546334485986106</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.09502748119299462</v>
+        <v>0.09236285276493465</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1042401513849327</v>
+        <v>0.1050385281024619</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1418387389605381</v>
+        <v>0.1450516379981255</v>
       </c>
     </row>
     <row r="18">
@@ -1272,40 +1272,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1575053765667068</v>
+        <v>0.1655899125735037</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1791820635544638</v>
+        <v>0.1853536905330833</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2255368521676862</v>
+        <v>0.2262643532246799</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2108698350659924</v>
+        <v>0.2123886264706817</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2015131229078345</v>
+        <v>0.2034329393930317</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.203319624188977</v>
+        <v>0.203003547946867</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2242724049813964</v>
+        <v>0.2342792439694209</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2202779260496186</v>
+        <v>0.2168962575360646</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1596703249052437</v>
+        <v>0.1621921427739912</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1775890391609752</v>
+        <v>0.1741008541592499</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2026692568420442</v>
+        <v>0.2086710574097864</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2056875482515922</v>
+        <v>0.2054913006755562</v>
       </c>
     </row>
     <row r="19">
@@ -1583,31 +1583,31 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3218</v>
+        <v>3327</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>961</v>
+        <v>948</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1149</v>
+        <v>1158</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2375</v>
+        <v>2338</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>8172</v>
+        <v>8288</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1892</v>
+        <v>1848</v>
       </c>
       <c r="L6" s="6" t="n">
         <v>1070</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>3593</v>
+        <v>3527</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>13204</v>
+        <v>12986</v>
       </c>
     </row>
     <row r="7">
@@ -1618,38 +1618,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5490</v>
+        <v>4885</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>5292</v>
+        <v>5219</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>10348</v>
+        <v>9989</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>7430</v>
+        <v>7481</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>9909</v>
+        <v>10397</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>13368</v>
+        <v>13416</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>17089</v>
+        <v>16709</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>10696</v>
+        <v>10000</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>9750</v>
+        <v>10565</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>16259</v>
+        <v>15485</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>24607</v>
+        <v>24736</v>
       </c>
     </row>
     <row r="8">
@@ -1753,33 +1753,33 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>2104</v>
+        <v>1832</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1604</v>
+        <v>1644</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>527</v>
+        <v>499</v>
       </c>
       <c r="G10" s="6" t="inlineStr"/>
       <c r="H10" s="6" t="n">
-        <v>4164</v>
+        <v>4190</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>8401</v>
+        <v>8514</v>
       </c>
       <c r="K10" s="6" t="inlineStr"/>
       <c r="L10" s="6" t="n">
-        <v>8299</v>
+        <v>8433</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>2867</v>
+        <v>2861</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>9718</v>
+        <v>10075</v>
       </c>
     </row>
     <row r="11">
@@ -1791,33 +1791,33 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>10899</v>
+        <v>11128</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8322</v>
+        <v>8710</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>4813</v>
+        <v>5055</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>15248</v>
+        <v>15459</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>8069</v>
+        <v>8533</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>17578</v>
+        <v>17917</v>
       </c>
       <c r="K11" s="6" t="inlineStr"/>
       <c r="L11" s="6" t="n">
-        <v>22374</v>
+        <v>22653</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>12985</v>
+        <v>13724</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>19648</v>
+        <v>20513</v>
       </c>
     </row>
     <row r="12">
@@ -1925,31 +1925,31 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>690</v>
+        <v>665</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3110</v>
+        <v>3077</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2529</v>
+        <v>2475</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>5423</v>
+        <v>5461</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>2838</v>
+        <v>3106</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>3508</v>
+        <v>3509</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>7478</v>
+        <v>7327</v>
       </c>
     </row>
     <row r="15">
@@ -1962,34 +1962,34 @@
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>5573</v>
+        <v>5084</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>6738</v>
+        <v>6318</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6345</v>
+        <v>6178</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>14090</v>
+        <v>14216</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>13218</v>
+        <v>13013</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>14308</v>
+        <v>14419</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>5901</v>
+        <v>6155</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>14377</v>
+        <v>15072</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>15391</v>
+        <v>15019</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>18116</v>
+        <v>17433</v>
       </c>
     </row>
     <row r="16">
@@ -2101,31 +2101,31 @@
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2594</v>
+        <v>2847</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2219</v>
+        <v>1219</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4352</v>
+        <v>4403</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>5269</v>
+        <v>5034</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>10863</v>
+        <v>11036</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>3391</v>
+        <v>3124</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>6296</v>
+        <v>6424</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>6146</v>
+        <v>6295</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>15424</v>
+        <v>15545</v>
       </c>
     </row>
     <row r="19">
@@ -2136,40 +2136,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>4169</v>
+        <v>4950</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>6464</v>
+        <v>6495</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>5805</v>
+        <v>6086</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>9200</v>
+        <v>9464</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>10677</v>
+        <v>11255</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>16408</v>
+        <v>16226</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>19457</v>
+        <v>19456</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>22988</v>
+        <v>23275</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>14018</v>
+        <v>13732</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>19737</v>
+        <v>19838</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>21974</v>
+        <v>21659</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>29406</v>
+        <v>30044</v>
       </c>
     </row>
     <row r="20">
@@ -2272,40 +2272,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>878</v>
+        <v>887</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3189</v>
+        <v>3182</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5376</v>
+        <v>5130</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>10759</v>
+        <v>10571</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>5555</v>
+        <v>5244</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>20518</v>
+        <v>19684</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>17253</v>
+        <v>16272</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>40949</v>
+        <v>40886</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>8609</v>
+        <v>7866</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>26964</v>
+        <v>26208</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>25423</v>
+        <v>25617</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>54467</v>
+        <v>55701</v>
       </c>
     </row>
     <row r="23">
@@ -2316,40 +2316,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>7605</v>
+        <v>7995</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>14067</v>
+        <v>14551</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>16261</v>
+        <v>16313</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>22895</v>
+        <v>23060</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>18851</v>
+        <v>19030</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>41730</v>
+        <v>41665</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>38527</v>
+        <v>40246</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>60671</v>
+        <v>59740</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>22645</v>
+        <v>23003</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>50391</v>
+        <v>49401</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>49428</v>
+        <v>50892</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>78985</v>
+        <v>78910</v>
       </c>
     </row>
     <row r="24">
